--- a/仕様書石塚.xlsx
+++ b/仕様書石塚.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\monja\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="主人公の能力" sheetId="1" r:id="rId1"/>
     <sheet name="操作方法" sheetId="3" r:id="rId2"/>
     <sheet name="ステータスUI" sheetId="4" r:id="rId3"/>
+    <sheet name="敵" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -3609,6 +3610,1224 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="114300"/>
+          <a:ext cx="13696950" cy="20250150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177841</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107901</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2749471" cy="950709"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="177841" y="2489151"/>
+          <a:ext cx="2749471" cy="950709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>スケルトン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180024</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>222201</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2954655" cy="1251048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180024" y="222201"/>
+          <a:ext cx="2954655" cy="1251048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>敵の情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502384</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>126951</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3262432" cy="950709"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3931384" y="1555701"/>
+          <a:ext cx="3262432" cy="950709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>行動パターン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314326" y="3489325"/>
+          <a:ext cx="2305050" cy="3073400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>290749</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22176</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1723549" cy="950709"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3719749" y="2879676"/>
+          <a:ext cx="1723549" cy="950709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>物攻撃</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>585332</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3126</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1210588" cy="950709"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4014332" y="5003751"/>
+          <a:ext cx="1210588" cy="950709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>防御</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>290752</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>117426</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1723549" cy="950709"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3719752" y="3927426"/>
+          <a:ext cx="1723549" cy="950709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>物攻撃</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>187366</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>126951</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2749471" cy="950709"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9102766" y="1555701"/>
+          <a:ext cx="2749471" cy="950709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ステータス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>186671</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>222201</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5556903" cy="950709"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7730471" y="3317826"/>
+          <a:ext cx="5556903" cy="950709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>物理攻撃　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4000" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="4000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>224771</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>212676</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4985403" cy="950709"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7768571" y="4737051"/>
+          <a:ext cx="4985403" cy="950709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>物理防御　   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="4000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="4000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>117426</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3632341" cy="950709"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="2498676"/>
+          <a:ext cx="3632341" cy="950709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>体力　　　 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="4000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>150</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="4000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>234296</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>184101</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4813954" cy="950709"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7778096" y="5422851"/>
+          <a:ext cx="4813954" cy="950709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>魔法防御　   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="4000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="4000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>443846</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>155526</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2236510" cy="950709"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="443846" y="1584276"/>
+          <a:ext cx="2236510" cy="950709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>敵の名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線コネクタ 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3419475" y="0"/>
+          <a:ext cx="9526" cy="20212050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線コネクタ 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7543800" y="0"/>
+          <a:ext cx="9526" cy="20231100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="2381250"/>
+          <a:ext cx="13725525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線コネクタ 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="1666875"/>
+          <a:ext cx="13716000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線コネクタ 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="3448050"/>
+          <a:ext cx="3400425" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線コネクタ 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="6429375"/>
+          <a:ext cx="13696950" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>191406</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>193626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4475843" cy="950709"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7735206" y="4003626"/>
+          <a:ext cx="4475843" cy="950709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>魔法攻撃　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4000" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="4000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="4000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3914,7 +5133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -3924,4 +5143,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/仕様書石塚.xlsx
+++ b/仕様書石塚.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="主人公の能力" sheetId="1" r:id="rId1"/>
@@ -106,13 +106,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -121,8 +121,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9526"/>
-          <a:ext cx="14392275" cy="9477374"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14392275" cy="9534525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -130,6 +130,11 @@
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -163,13 +168,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>609600</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -178,7 +183,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="609600"/>
+          <a:off x="5486400" y="9525"/>
           <a:ext cx="8905875" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -280,13 +285,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>609600</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -295,7 +300,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="609600"/>
+          <a:off x="2057400" y="0"/>
           <a:ext cx="3419475" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -431,11 +436,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>54707</xdr:colOff>
+      <xdr:colOff>45182</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>555576</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3262432" cy="1122423"/>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3262432" cy="742950"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="正方形/長方形 8"/>
@@ -443,8 +448,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2112107" y="555576"/>
-          <a:ext cx="3262432" cy="1122423"/>
+          <a:off x="2102582" y="0"/>
+          <a:ext cx="3262432" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -453,7 +458,7 @@
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
@@ -1245,11 +1250,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>655828</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>69801</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="8956298" cy="920799"/>
+      <xdr:colOff>646303</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>98376</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8956298" cy="844599"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="正方形/長方形 20"/>
@@ -1257,8 +1262,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5456428" y="688926"/>
-          <a:ext cx="8956298" cy="920799"/>
+          <a:off x="5446903" y="98376"/>
+          <a:ext cx="8956298" cy="844599"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1668,15 +1673,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1685,12 +1690,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9525" y="5372100"/>
+          <a:off x="0" y="5191125"/>
           <a:ext cx="2066925" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1755,16 +1765,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>600075</xdr:rowOff>
+      <xdr:rowOff>600076</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1772,9 +1782,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2038350" y="0"/>
-          <a:ext cx="19050" cy="600075"/>
+        <a:xfrm flipV="1">
+          <a:off x="2057400" y="57150"/>
+          <a:ext cx="0" cy="542926"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1806,9 +1816,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1818,11 +1828,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2057400" y="5857875"/>
-          <a:ext cx="19050" cy="3619500"/>
+          <a:ext cx="0" cy="3676650"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1841,6 +1856,391 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="942975"/>
+          <a:ext cx="2076450" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3515</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>98376</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2031325" cy="607346"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2060915" y="955626"/>
+          <a:ext cx="2031325" cy="607346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ステータス名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線コネクタ 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="2295525"/>
+          <a:ext cx="12334875" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線コネクタ 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2066925" y="2990850"/>
+          <a:ext cx="12353925" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線コネクタ 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="3714750"/>
+          <a:ext cx="12334875" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線コネクタ 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2057400" y="4352925"/>
+          <a:ext cx="12353925" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線コネクタ 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="5105400"/>
+          <a:ext cx="12353925" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>73017</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>222201</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3416320" cy="864789"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6931017" y="841326"/>
+          <a:ext cx="3416320" cy="864789"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="3600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ステータス数値</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3617,10 +4017,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
@@ -3635,8 +4035,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1590675" y="114300"/>
-          <a:ext cx="13696950" cy="20250150"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15287625" cy="20364450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5096,8 +5496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5133,7 +5533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -5149,7 +5549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
